--- a/TestCase/TestCaseLDH.xlsx
+++ b/TestCase/TestCaseLDH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BF2382-7CC0-4765-AB55-B4ED99111306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F33C07-A4DE-4690-8AE6-ABB6BEE66CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="7965" yWindow="1185" windowWidth="21600" windowHeight="14205" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="258">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1011,24 +1011,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>UPDATE Delivery SET status = '배송중' WHERE delivery_id = 1;</t>
-  </si>
-  <si>
-    <t>배송알람 테이블에 알람튜플이 정상적으로 등록이 된다</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT do.*
-FROM Delivery_Option do
-JOIN Delivery d ON do.price_id = d.delivery_id
-WHERE d.status = '배송중'
-  AND d.driver_id = [배송기사 id] 
-ORDER BY 
-    do.request_datetime IS NULL,  
-    do.request_datetime ASC;     </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>배송중 사고처리</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1040,6 +1022,36 @@
   </si>
   <si>
     <t>배송사고 로그에 로그가 기록이 된다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT do.*
+FROM Delivery_Option do
+JOIN Delivery d ON do.delivery_id = d.delivery_id
+WHERE d.status IN ('배송중', '배송완료')  -- '배송중' 또는 '배송완료' 상태를 포함
+  AND d.driver_id = [배송기사 id]
+  AND DATE(d.start_date) = CURDATE()  -- 현재 날짜와 같은 start_date
+ORDER BY 
+    d.status = '배송중' DESC,  -- '배송중'인 상태가 먼저 오도록 정렬
+    do.request_datetime IS NULL,  -- NULL 값이 뒤로 가도록 정렬
+    do.request_datetime ASC;  -- 그 외의 값은 오름차순으로 정렬</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-DM-006</t>
+  </si>
+  <si>
+    <t>TC-DM-007</t>
+  </si>
+  <si>
+    <t>SELECT * 
+FROM Delivery_Alarm
+WHERE delivery_id = 101
+ORDER BY send_date DESC;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송알람 테이블의 배송상태값 마다 로그 기록이 출력된다</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1716,11 +1728,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+      <pane ySplit="7" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2857,7 +2869,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>172</v>
       </c>
@@ -2874,13 +2886,13 @@
         <v>56</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>173</v>
       </c>
@@ -2897,10 +2909,10 @@
         <v>56</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2911,20 +2923,27 @@
         <v>248</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F55" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="G55" s="1" t="s">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:N7" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}"/>

--- a/TestCase/TestCaseLDH.xlsx
+++ b/TestCase/TestCaseLDH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Sodam\TestCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BF2382-7CC0-4765-AB55-B4ED99111306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651A04B4-0B9E-4B72-BF0C-6CCF0A5DFF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Store" sheetId="21" r:id="rId4"/>
     <sheet name="Payment" sheetId="22" r:id="rId5"/>
     <sheet name="Delivery" sheetId="23" r:id="rId6"/>
+    <sheet name="Delivery_Link" sheetId="25" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testcase!$A$7:$N$7</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="295">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -214,19 +215,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>배송 장비 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>유통기한 관리</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>배송 주문 접수 및 기사 할당</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송 우선순위 설정</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -673,41 +666,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>배송기사 상태값이 배송가능이 아닌경우</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO Delivery (driver_id) SELECT driver_id
-FROM Delivery_driver WHERE status != '근무가능';</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"해당 기사는 근무가 가능하지 않습니다."</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송차량 상태값이 배송가능이 아닌경우</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO Delivery_Car (Car_id) SELECT Car_id
-FROM Delivery_Car WHERE status != '배송가능';</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"해당 차량은 배차가 가능하지 않습니다."</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송기사가 자신의 id로 배송해야할 리스트를 출력하는 경우</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜가 낮은순(우선순위)항목이 
-내림차순으로 배송중인 항목만 출력된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TC-DM-002</t>
   </si>
   <si>
@@ -982,21 +940,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"해당 배송기사는 배송불가 상태입니다."</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT do.*
-FROM Delivery_Option do
-JOIN Delivery d ON do.price_id = d.delivery_id
-WHERE d.status = '배송중'
-  AND d.driver_id = [실제 드라이버 id 입력] 
-ORDER BY 
-    do.request_datetime IS NULL,  
-    do.request_datetime ASC;     </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TC-DM-005</t>
   </si>
   <si>
@@ -1004,50 +947,399 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>고객 알림 서비스</t>
-  </si>
-  <si>
-    <t>배송테이블 status값이 변경될때마다 알람전송</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE Delivery SET status = '배송중' WHERE delivery_id = 1;</t>
-  </si>
-  <si>
-    <t>배송알람 테이블에 알람튜플이 정상적으로 등록이 된다</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT do.*
-FROM Delivery_Option do
-JOIN Delivery d ON do.price_id = d.delivery_id
-WHERE d.status = '배송중'
-  AND d.driver_id = [배송기사 id] 
-ORDER BY 
-    do.request_datetime IS NULL,  
-    do.request_datetime ASC;     </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송중 사고처리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE Delivery
-SET status = '배송중사고'
-WHERE delivery_id = 1;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송사고 로그에 로그가 기록이 된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>주문id에 투입되는 배송기사 리스트 출력</t>
+  </si>
+  <si>
+    <t>CALL GetDriverCount(100);</t>
+  </si>
+  <si>
+    <t>문서 링크</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>생성날짜</t>
+  </si>
+  <si>
+    <t>상세내용</t>
+  </si>
+  <si>
+    <t>목적</t>
+  </si>
+  <si>
+    <t>프로시저/트리거 이름</t>
+  </si>
+  <si>
+    <t>속성</t>
+  </si>
+  <si>
+    <t>프로시저/트리거 ID</t>
+  </si>
+  <si>
+    <t>TC-DM-PT-001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDriverCount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 주문id에 투입 가능한 배송기사id 리스트 출력</t>
+  </si>
+  <si>
+    <t>DELIMITER $$
+CREATE PROCEDURE GetDriverCount(IN input_order_id INT)
+BEGIN
+    DECLARE done INT DEFAULT 0;
+    DECLARE v_driver_id INT;
+    DECLARE v_zone VARCHAR(50);
+    DECLARE v_delivery_count INT;
+    DECLARE v_found INT DEFAULT 0;
+    DECLARE v_order_status VARCHAR(50);
+    -- 주문 존재 여부 확인
+    DECLARE order_exists INT;
+    -- 커서에 사용될 조인 쿼리 작성 (서브쿼리 대신 조인 사용)
+    DECLARE cur CURSOR FOR
+        SELECT
+            dd.driver_id,
+            dd.zone,
+            COUNT(da.assignment_id) AS delivery_count
+        FROM
+            delivery_driver dd
+        LEFT JOIN
+            delivery_assignment da ON dd.driver_id = da.driver_id
+        JOIN
+            online_order oo ON oo.receiver_address LIKE CONCAT('%', dd.zone, '%') -- zone 값과 receiver_address의 일치 조건
+        WHERE
+            dd.insurance = 1
+            AND dd.training_check = 1
+            AND dd.status = '근무가능'
+            AND oo.status = '결제 완료'
+            AND oo.order_id = input_order_id
+        GROUP BY
+            dd.driver_id, dd.zone
+        HAVING
+            delivery_count &lt; 10
+        ORDER BY
+            delivery_count DESC, dd.driver_id ASC;
+    -- 핸들러로 커서 종료 처리
+    DECLARE CONTINUE HANDLER FOR NOT FOUND SET done = 1;
+    -- 임시 테이블이 이미 존재하는지 확인하고 존재하면 삭제
+    DROP TEMPORARY TABLE IF EXISTS temp_driver_list;
+    -- 임시 테이블을 생성해서 결과를 저장
+    CREATE TEMPORARY TABLE temp_driver_list (
+        driver_id INT,
+        zone VARCHAR(50),
+        delivery_count INT
+    );
+    -- 주문 존재 여부 확인
+    SELECT COUNT(*) INTO order_exists
+    FROM online_order
+    WHERE order_id = input_order_id;
+    -- 주문이 존재하지 않으면 로그에 메시지 삽입하고 종료
+    IF order_exists = 0 THEN
+        INSERT INTO driver_count_log (order_id, zone, delivery_count, message, created_at)
+        VALUES (input_order_id, NULL, NULL, '존재하지 않는 id입니다', NOW());
+        -- 프로시저 종료: SIGNAL을 사용하여 예외 발생
+        SIGNAL SQLSTATE '45000' SET MESSAGE_TEXT = '존재하지 않는 id입니다';
+    END IF;
+    -- 주문 상태 조회
+    SELECT status INTO v_order_status
+    FROM online_order
+    WHERE order_id = input_order_id;
+    -- 결제 완료 상태가 아니면 로그 테이블에 메시지 삽입하고 종료
+    IF v_order_status &lt;&gt; '결제 완료' THEN
+        INSERT INTO driver_count_log (order_id, zone, delivery_count, message, created_at)
+        VALUES (input_order_id, NULL, NULL, '결제 완료 상태가 아닙니다', NOW());
+        -- 프로시저 종료: SIGNAL을 사용하여 예외 발생
+        SIGNAL SQLSTATE '45000' SET MESSAGE_TEXT = '결제 완료 상태가 아닙니다';
+    END IF;
+    -- 커서 열기
+    OPEN cur;
+    -- 커서에서 한 행씩 처리
+    read_loop: LOOP
+        FETCH cur INTO v_driver_id, v_zone, v_delivery_count;
+        IF done THEN
+            LEAVE read_loop;
+        END IF;
+        -- delivery_count가 1 이상인 경우만 임시 테이블에 기록
+        INSERT INTO temp_driver_list (driver_id, zone, delivery_count)
+        VALUES (v_driver_id, v_zone, v_delivery_count);
+        -- 데이터가 있으면 v_found를 1로 설정
+        SET v_found = 1;
+        -- 가장 높은 delivery_count를 가진 한 사람만 기록하므로 첫 번째로 처리된 후 종료
+    END LOOP;
+    -- 커서 닫기
+    CLOSE cur;
+    -- 만약 delivery_count가 1 이상인 드라이버가 없으면, delivery_count가 0인 드라이버 중에서 id가 가장 작은 드라이버를 기록
+    IF v_found = 0 THEN
+        -- delivery_count가 0인 드라이버들 중에서 id가 가장 작은 드라이버 선택
+        SELECT
+            dd.driver_id,
+            dd.zone,
+            0 AS delivery_count  -- 배달이 없는 드라이버는 delivery_count를 0으로 설정
+        INTO
+            v_driver_id, v_zone, v_delivery_count
+        FROM
+            delivery_driver dd
+        LEFT JOIN
+            delivery_assignment da ON dd.driver_id = da.driver_id
+        WHERE
+            dd.insurance = 1
+            AND dd.training_check = 1
+            AND dd.status = '근무가능'
+        GROUP BY
+            dd.driver_id, dd.zone
+        HAVING
+            COUNT(da.assignment_id) = 0
+        ORDER BY
+            dd.driver_id ASC
+        LIMIT 1;
+        -- 선택된 드라이버를 임시 테이블에 삽입
+        INSERT INTO temp_driver_list (driver_id, zone, delivery_count)
+        VALUES (v_driver_id, v_zone, v_delivery_count);
+        -- v_found를 1로 설정하여 "배치할 기사가 없습니다" 메시지가 다시 삽입되지 않도록 처리
+        SET v_found = 1;
+    END IF;
+    -- 만약 delivery_count가 0인 드라이버도 없으면 "배치할 기사가 없습니다"라는 메시지 삽입
+    IF v_found = 0 THEN
+        INSERT INTO temp_driver_list (driver_id, zone, delivery_count)
+        VALUES (NULL, NULL, NULL);
+    END IF;
+    -- 임시 테이블에서 결과를 SELECT로 출력
+    SELECT driver_id, zone, delivery_count
+    FROM temp_driver_list
+    ORDER BY delivery_count DESC, driver_id ASC;
+    -- driver_count_log에 데이터 삽입
+    -- order_id와 driver_id 둘 다 삽입
+    INSERT INTO driver_count_log (order_id, driver_id, zone, delivery_count, message, created_at)
+    SELECT input_order_id, driver_id, zone, delivery_count, '근무투입 가능', NOW()
+    FROM temp_driver_list
+    ORDER BY delivery_count DESC, driver_id ASC
+    LIMIT 1;
+    -- 임시 테이블 삭제
+    DROP TEMPORARY TABLE IF EXISTS temp_driver_list;
+END $$
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀렉트후 driver_count_log 테이블에 로그 기록이 남는다</t>
+  </si>
+  <si>
+    <t>이동현</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.3.31</t>
+  </si>
+  <si>
+    <t>0.062 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송id = 100의 상태가 '결재완료' 이면 투입가능한 배송기사 리스트가 출력되고 driver_count_log에 근무투입 가능 이 기록된다</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2780 row(s) returned</t>
+  </si>
+  <si>
+    <t>존재하지 않는 주문 id 배송기사 조회</t>
+  </si>
+  <si>
+    <t>CALL GetDriverCount(1013213);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000 sec</t>
+  </si>
+  <si>
+    <t>존재하지 않는 id 입니다 텍스트가 출력되고 driver_count_log테이블에 에러가 기록됨</t>
+  </si>
+  <si>
+    <t>Error Code: 1644 존재하지 않는 id입니다</t>
+  </si>
+  <si>
+    <t>배송id의 상태값이 결재완료 이지만 조건에 맞는 배송기사가 없는 경우</t>
+  </si>
+  <si>
+    <t>CALL GetDriverCount(105);</t>
+  </si>
+  <si>
+    <t>배치할 기사가 없습니다 텍스트가 출력되고 driver_count_log테이블에 에러가 기록됨</t>
+  </si>
+  <si>
+    <t>테스트 미완료</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송id의 상태값이 결재완료 상태가 아닌 경우</t>
+  </si>
+  <si>
+    <t>CALL GetDriverCount(결재완료가 아닌 id가 필요);</t>
+  </si>
+  <si>
+    <t>2025.3.31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재 완료 상태가 아닙니다 텍스트가 출력되고 driver_count_log테이블에 에러가 기록됨</t>
+  </si>
+  <si>
+    <t>배송기사id로 해당 배송기사의 배송리스트 전체조회</t>
+  </si>
+  <si>
+    <t>CALL Log_Driver_Accident_Rate(1)</t>
+  </si>
+  <si>
+    <t>Log_Driver_Accident_Rate</t>
+  </si>
+  <si>
+    <t>입력한 배송기사id의 전체 배송 리스트 와 사고율 출력</t>
+  </si>
+  <si>
+    <t>DELIMITER $$
+CREATE PROCEDURE Log_Driver_Accident_Rate(IN input_driver_id BIGINT)
+BEGIN
+DECLARE total_deliveries INT DEFAULT 0;  -- 총 배송 횟수
+DECLARE accident_deliveries INT DEFAULT 0;  -- 배송중사고 배송 횟수
+DECLARE accident_rate DECIMAL(5, 2) DEFAULT 0;  -- 배송중사고율
+DECLARE driver_text VARCHAR(50) DEFAULT NULL;  -- 사고율에 따른 사원 평가 메시지
+-- 1. driver_id가 존재하는지 확인
+IF NOT EXISTS (SELECT 1 FROM delivery_driver WHERE driver_id = input_driver_id) THEN
+    SET driver_text = '존재하지 않는 배송기사id입니다';
+    -- 존재하지 않으면 메시지를 로그 테이블에 삽입하고 종료
+    INSERT INTO Delivery_driver_Accident_log (driver_id, select_date, delivery_count, accident_rate, text)
+    VALUES (input_driver_id, NOW(), 0, 0, driver_text);
+    -- 프로시저 종료
+    SIGNAL SQLSTATE '45000' SET MESSAGE_TEXT = '존재하지 않는 배송기사id입니다';
+END IF;
+-- 2. 총 배송 횟수 계산
+SELECT COUNT(*) INTO total_deliveries
+FROM delivery d
+INNER JOIN delivery_assignment da ON d.assignment_id = da.assignment_id
+WHERE da.driver_id = input_driver_id;
+-- 3. 사고 배송 횟수 계산
+SELECT COUNT(*) INTO accident_deliveries
+FROM delivery d
+INNER JOIN delivery_assignment da ON d.assignment_id = da.assignment_id
+WHERE da.driver_id = input_driver_id AND d.status = '배송중사고';
+-- 4. 사고율 계산
+IF total_deliveries &gt; 0 THEN
+    SET accident_rate = (accident_deliveries / total_deliveries) * 100;
+    -- 사고율에 따른 사원 평가
+    IF accident_rate = 0 THEN
+        SET driver_text = '우수사원입니다';
+    ELSEIF accident_rate &gt; 0 AND accident_rate &lt; 10 THEN
+        SET driver_text = '준수한 사원입니다';
+    ELSEIF accident_rate &gt;= 10 AND accident_rate &lt; 20 THEN
+        SET driver_text = '별도의 훈련이 필요한 사원입니다';
+    ELSE
+        SET driver_text = '불량사원입니다';
+    END IF;
+ELSE
+    SET driver_text = '근무 배정된 기록이 없습니다';
+END IF;
+INSERT INTO Delivery_driver_Accident_log (driver_id, select_date, delivery_count, accident_rate, text)
+VALUES (input_driver_id, NOW(), total_deliveries, accident_rate, driver_text);
+SELECT
+    d.delivery_id,
+    d.status,
+    d.start_date,
+    d.end_date,
+    d.request_type,
+    da.assignment_id,
+    da.driver_id
+FROM delivery d
+INNER JOIN delivery_assignment da ON d.assignment_id = da.assignment_id
+WHERE da.driver_id = input_driver_id
+ORDER BY CASE
+    WHEN d.status = '배송중' THEN 1
+    WHEN d.status = '배송완료' THEN 2
+    ELSE 3 
+END,
+d.delivery_id ASC;
+END $$
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀렉트후 Delivery_driver_Accident_log 테이블에 로그 기록이 남는다</t>
+  </si>
+  <si>
+    <t>2025.4.5</t>
+  </si>
+  <si>
+    <t>0.047 sec</t>
+  </si>
+  <si>
+    <t>해당 배송기사의 배송리스트가 모두 출력되고 delivery_driver_accident_log테이블에 배송사고율이 기록됨</t>
+  </si>
+  <si>
+    <t>10 row(s) returned</t>
+  </si>
+  <si>
+    <t>존재하지 않는 배송기사id 조회</t>
+  </si>
+  <si>
+    <t>CALL Log_Driver_Accident_Rate(121323354)</t>
+  </si>
+  <si>
+    <t>TC-DM-006</t>
+  </si>
+  <si>
+    <t>0.031 sec</t>
+  </si>
+  <si>
+    <t>존재하지 않는 배송기사id 입니다 텍스트를 출력하고 delivery_driver_accident_log에 에러 기록이 남는다</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Code: 1644 존재하지 않는 배송기사id 입니다</t>
+  </si>
+  <si>
+    <t>근무 기록이 없는 배송기사id 조회</t>
+  </si>
+  <si>
+    <t>TC-DM-007</t>
+  </si>
+  <si>
+    <t>CALL Log_Driver_Accident_Rate(10000)</t>
+  </si>
+  <si>
+    <t>2025.4.5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.027 sec</t>
+  </si>
+  <si>
+    <t>근무 배정된 기록이 없습니다 텍스트를 출력하고 delivery_driver_accident_log에 기록이 남는다</t>
+  </si>
+  <si>
+    <t>Error Code: 1644 근무 배정된 기록이 없습니다</t>
+  </si>
+  <si>
+    <t>TC-DM-PT-002</t>
+  </si>
+  <si>
+    <t>배송 주문 접수 및 기사 할당</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1166,8 +1458,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1254,6 +1563,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1275,7 +1596,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1312,8 +1633,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1377,6 +1707,39 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1387,18 +1750,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="15">
     <cellStyle name="20% - 강조색1" xfId="6" builtinId="30"/>
+    <cellStyle name="20% - 강조색1 2" xfId="13" xr:uid="{4F49F69E-C944-4E44-92CB-407AC2DAADE2}"/>
     <cellStyle name="20% - 강조색2" xfId="7" builtinId="34"/>
     <cellStyle name="20% - 강조색3" xfId="8" builtinId="38"/>
     <cellStyle name="20% - 강조색4" xfId="9" builtinId="42"/>
     <cellStyle name="20% - 강조색6" xfId="10" builtinId="50"/>
+    <cellStyle name="40% - 강조색5 2" xfId="14" xr:uid="{4A23CB96-4E88-46A1-9B30-31C4B0FC1170}"/>
     <cellStyle name="강조색1" xfId="5" builtinId="29"/>
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="보통" xfId="3" builtinId="28"/>
     <cellStyle name="요약" xfId="4" builtinId="25"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="12" xr:uid="{655F195C-78CD-40E8-90FD-9DAAC1E9FB9F}"/>
     <cellStyle name="하이퍼링크" xfId="11" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1716,11 +2082,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+      <pane ySplit="7" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1738,10 +2104,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" s="5" t="s">
@@ -1768,13 +2134,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1782,7 +2148,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -1790,7 +2156,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -1804,10 +2170,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>0</v>
@@ -1816,13 +2182,13 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="J7" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>1</v>
@@ -1839,16 +2205,16 @@
         <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" s="1"/>
@@ -1863,16 +2229,16 @@
         <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="1"/>
@@ -1880,23 +2246,23 @@
     </row>
     <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H10" s="2"/>
       <c r="J10" s="1"/>
@@ -1904,23 +2270,23 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H11" s="2"/>
       <c r="J11" s="1"/>
@@ -1928,23 +2294,23 @@
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H12" s="2"/>
       <c r="J12" s="1"/>
@@ -1952,23 +2318,23 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H13" s="2"/>
       <c r="J13" s="1"/>
@@ -1976,23 +2342,23 @@
     </row>
     <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="H14" s="2"/>
       <c r="J14" s="1"/>
@@ -2000,23 +2366,23 @@
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H15" s="2"/>
       <c r="J15" s="1"/>
@@ -2024,23 +2390,23 @@
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="H16" s="2"/>
       <c r="J16" s="1"/>
@@ -2048,23 +2414,23 @@
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H17" s="2"/>
       <c r="J17" s="1"/>
@@ -2072,23 +2438,23 @@
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="H18" s="2"/>
       <c r="J18" s="1"/>
@@ -2096,7 +2462,7 @@
     </row>
     <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
@@ -2105,16 +2471,16 @@
         <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H19" s="1"/>
       <c r="J19" s="1"/>
@@ -2131,25 +2497,25 @@
         <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -2164,25 +2530,25 @@
         <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="K21" s="1"/>
     </row>
@@ -2197,25 +2563,25 @@
         <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="K22" s="1"/>
     </row>
@@ -2230,25 +2596,25 @@
         <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="K23" s="1"/>
     </row>
@@ -2263,25 +2629,25 @@
         <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -2296,16 +2662,16 @@
         <v>40</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2319,16 +2685,16 @@
         <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2342,255 +2708,255 @@
         <v>42</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
@@ -2599,21 +2965,21 @@
         <v>30</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>10</v>
@@ -2622,21 +2988,21 @@
         <v>30</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
@@ -2645,21 +3011,21 @@
         <v>31</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
@@ -2668,21 +3034,21 @@
         <v>31</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
@@ -2691,21 +3057,21 @@
         <v>32</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
@@ -2714,21 +3080,21 @@
         <v>32</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
@@ -2737,21 +3103,21 @@
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
@@ -2760,16 +3126,16 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2780,151 +3146,251 @@
         <v>11</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>57</v>
+      <c r="C51" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>163</v>
+        <v>45</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="E52" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I52" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="J52" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E53" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I53" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I54" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="I55" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
+      <c r="J55" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="I57" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>290</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A7:N7" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}"/>
@@ -2992,34 +3458,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3027,31 +3493,31 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3059,31 +3525,31 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3116,96 +3582,96 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -3213,28 +3679,28 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E5" s="18">
         <v>45727.906504629631</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3242,86 +3708,86 @@
         <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E6" s="18">
         <v>45727.901932870373</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E7" s="18">
         <v>45727.907893518517</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E8" s="18">
         <v>45727.910671296297</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -3365,248 +3831,248 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E3" s="18">
         <v>45727.870196759257</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E4" s="18">
         <v>45727.879166666666</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E5" s="18">
         <v>45727.884097222224</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E6" s="18">
         <v>45727.881423611114</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E7" s="18">
         <v>45727.882337962961</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E8" s="18">
         <v>45727.883425925924</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E9" s="18">
         <v>45727.884097222224</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E10" s="18">
         <v>45727.884097222224</v>
@@ -3615,11 +4081,11 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E11" s="18">
         <v>45728.884097222224</v>
@@ -3628,10 +4094,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E12" s="18">
         <v>45729.884097222224</v>
@@ -3640,10 +4106,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E13" s="18">
         <v>45730.884097222224</v>
@@ -3661,7 +4127,7 @@
   <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3680,34 +4146,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3715,31 +4181,31 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3747,36 +4213,36 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3787,123 +4253,3532 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50FCE08-A9A6-4483-84DE-98EAA6AAEB1B}">
-  <dimension ref="A2:J5"/>
+  <dimension ref="A2:K266"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="50.75" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="32.875" customWidth="1"/>
-    <col min="9" max="9" width="36.75" customWidth="1"/>
-    <col min="10" max="10" width="32.75" customWidth="1"/>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="5.625" customWidth="1"/>
+    <col min="9" max="9" width="32.875" customWidth="1"/>
+    <col min="10" max="10" width="36.75" customWidth="1"/>
+    <col min="11" max="11" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="B5" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="18"/>
-      <c r="G5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>170</v>
-      </c>
+      <c r="B6" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B128" s="17"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="17"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17"/>
+      <c r="K129" s="17"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="17"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="17"/>
+      <c r="K132" s="17"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B134" s="17"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="17"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B135" s="17"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
+      <c r="H135" s="17"/>
+      <c r="I135" s="17"/>
+      <c r="J135" s="17"/>
+      <c r="K135" s="17"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B136" s="17"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
+      <c r="H136" s="17"/>
+      <c r="I136" s="17"/>
+      <c r="J136" s="17"/>
+      <c r="K136" s="17"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B137" s="17"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
+      <c r="H137" s="17"/>
+      <c r="I137" s="17"/>
+      <c r="J137" s="17"/>
+      <c r="K137" s="17"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B138" s="17"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="17"/>
+      <c r="K138" s="17"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B139" s="17"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="17"/>
+      <c r="H139" s="17"/>
+      <c r="I139" s="17"/>
+      <c r="J139" s="17"/>
+      <c r="K139" s="17"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B140" s="17"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17"/>
+      <c r="I140" s="17"/>
+      <c r="J140" s="17"/>
+      <c r="K140" s="17"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B141" s="17"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+      <c r="K141" s="17"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B142" s="17"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="17"/>
+      <c r="I142" s="17"/>
+      <c r="J142" s="17"/>
+      <c r="K142" s="17"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B143" s="17"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
+      <c r="K143" s="17"/>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B144" s="17"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="17"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="17"/>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
+      <c r="K145" s="17"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="17"/>
+      <c r="I146" s="17"/>
+      <c r="J146" s="17"/>
+      <c r="K146" s="17"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="17"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="17"/>
+      <c r="K147" s="17"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B148" s="17"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="17"/>
+      <c r="I148" s="17"/>
+      <c r="J148" s="17"/>
+      <c r="K148" s="17"/>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B149" s="17"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="17"/>
+      <c r="I149" s="17"/>
+      <c r="J149" s="17"/>
+      <c r="K149" s="17"/>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B150" s="17"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
+      <c r="H150" s="17"/>
+      <c r="I150" s="17"/>
+      <c r="J150" s="17"/>
+      <c r="K150" s="17"/>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B151" s="17"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="17"/>
+      <c r="I151" s="17"/>
+      <c r="J151" s="17"/>
+      <c r="K151" s="17"/>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B152" s="17"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="17"/>
+      <c r="H152" s="17"/>
+      <c r="I152" s="17"/>
+      <c r="J152" s="17"/>
+      <c r="K152" s="17"/>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B153" s="17"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="17"/>
+      <c r="I153" s="17"/>
+      <c r="J153" s="17"/>
+      <c r="K153" s="17"/>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B154" s="17"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="17"/>
+      <c r="I154" s="17"/>
+      <c r="J154" s="17"/>
+      <c r="K154" s="17"/>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B155" s="17"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="17"/>
+      <c r="H155" s="17"/>
+      <c r="I155" s="17"/>
+      <c r="J155" s="17"/>
+      <c r="K155" s="17"/>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B156" s="17"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="17"/>
+      <c r="I156" s="17"/>
+      <c r="J156" s="17"/>
+      <c r="K156" s="17"/>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B157" s="17"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="17"/>
+      <c r="J157" s="17"/>
+      <c r="K157" s="17"/>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B158" s="17"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
+      <c r="I158" s="17"/>
+      <c r="J158" s="17"/>
+      <c r="K158" s="17"/>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B159" s="17"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="17"/>
+      <c r="J159" s="17"/>
+      <c r="K159" s="17"/>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B160" s="17"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="17"/>
+      <c r="J160" s="17"/>
+      <c r="K160" s="17"/>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B161" s="17"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="17"/>
+      <c r="I161" s="17"/>
+      <c r="J161" s="17"/>
+      <c r="K161" s="17"/>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B162" s="17"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="17"/>
+      <c r="J162" s="17"/>
+      <c r="K162" s="17"/>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B163" s="17"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="17"/>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B164" s="17"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17"/>
+      <c r="K164" s="17"/>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B165" s="17"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="17"/>
+      <c r="J165" s="17"/>
+      <c r="K165" s="17"/>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B166" s="17"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
+      <c r="K166" s="17"/>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B167" s="17"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="17"/>
+      <c r="I167" s="17"/>
+      <c r="J167" s="17"/>
+      <c r="K167" s="17"/>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B168" s="17"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="17"/>
+      <c r="I168" s="17"/>
+      <c r="J168" s="17"/>
+      <c r="K168" s="17"/>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B169" s="17"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="17"/>
+      <c r="E169" s="17"/>
+      <c r="F169" s="17"/>
+      <c r="G169" s="17"/>
+      <c r="H169" s="17"/>
+      <c r="I169" s="17"/>
+      <c r="J169" s="17"/>
+      <c r="K169" s="17"/>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B170" s="17"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="17"/>
+      <c r="H170" s="17"/>
+      <c r="I170" s="17"/>
+      <c r="J170" s="17"/>
+      <c r="K170" s="17"/>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B171" s="17"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="17"/>
+      <c r="H171" s="17"/>
+      <c r="I171" s="17"/>
+      <c r="J171" s="17"/>
+      <c r="K171" s="17"/>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B172" s="17"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="17"/>
+      <c r="I172" s="17"/>
+      <c r="J172" s="17"/>
+      <c r="K172" s="17"/>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B173" s="17"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="17"/>
+      <c r="H173" s="17"/>
+      <c r="I173" s="17"/>
+      <c r="J173" s="17"/>
+      <c r="K173" s="17"/>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B174" s="17"/>
+      <c r="C174" s="17"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="17"/>
+      <c r="H174" s="17"/>
+      <c r="I174" s="17"/>
+      <c r="J174" s="17"/>
+      <c r="K174" s="17"/>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B175" s="17"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="17"/>
+      <c r="I175" s="17"/>
+      <c r="J175" s="17"/>
+      <c r="K175" s="17"/>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B176" s="17"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="17"/>
+      <c r="I176" s="17"/>
+      <c r="J176" s="17"/>
+      <c r="K176" s="17"/>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B177" s="17"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17"/>
+      <c r="I177" s="17"/>
+      <c r="J177" s="17"/>
+      <c r="K177" s="17"/>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B178" s="17"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="17"/>
+      <c r="I178" s="17"/>
+      <c r="J178" s="17"/>
+      <c r="K178" s="17"/>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B179" s="17"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="17"/>
+      <c r="I179" s="17"/>
+      <c r="J179" s="17"/>
+      <c r="K179" s="17"/>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B180" s="17"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="17"/>
+      <c r="I180" s="17"/>
+      <c r="J180" s="17"/>
+      <c r="K180" s="17"/>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B181" s="17"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="17"/>
+      <c r="I181" s="17"/>
+      <c r="J181" s="17"/>
+      <c r="K181" s="17"/>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B182" s="17"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="17"/>
+      <c r="I182" s="17"/>
+      <c r="J182" s="17"/>
+      <c r="K182" s="17"/>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B183" s="17"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="17"/>
+      <c r="I183" s="17"/>
+      <c r="J183" s="17"/>
+      <c r="K183" s="17"/>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B184" s="17"/>
+      <c r="C184" s="17"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="17"/>
+      <c r="F184" s="17"/>
+      <c r="G184" s="17"/>
+      <c r="H184" s="17"/>
+      <c r="I184" s="17"/>
+      <c r="J184" s="17"/>
+      <c r="K184" s="17"/>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B185" s="17"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="17"/>
+      <c r="F185" s="17"/>
+      <c r="G185" s="17"/>
+      <c r="H185" s="17"/>
+      <c r="I185" s="17"/>
+      <c r="J185" s="17"/>
+      <c r="K185" s="17"/>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B186" s="17"/>
+      <c r="C186" s="17"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="17"/>
+      <c r="G186" s="17"/>
+      <c r="H186" s="17"/>
+      <c r="I186" s="17"/>
+      <c r="J186" s="17"/>
+      <c r="K186" s="17"/>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B187" s="17"/>
+      <c r="C187" s="17"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="17"/>
+      <c r="F187" s="17"/>
+      <c r="G187" s="17"/>
+      <c r="H187" s="17"/>
+      <c r="I187" s="17"/>
+      <c r="J187" s="17"/>
+      <c r="K187" s="17"/>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B188" s="17"/>
+      <c r="C188" s="17"/>
+      <c r="D188" s="17"/>
+      <c r="E188" s="17"/>
+      <c r="F188" s="17"/>
+      <c r="G188" s="17"/>
+      <c r="H188" s="17"/>
+      <c r="I188" s="17"/>
+      <c r="J188" s="17"/>
+      <c r="K188" s="17"/>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B189" s="17"/>
+      <c r="C189" s="17"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="17"/>
+      <c r="F189" s="17"/>
+      <c r="G189" s="17"/>
+      <c r="H189" s="17"/>
+      <c r="I189" s="17"/>
+      <c r="J189" s="17"/>
+      <c r="K189" s="17"/>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B190" s="17"/>
+      <c r="C190" s="17"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="17"/>
+      <c r="F190" s="17"/>
+      <c r="G190" s="17"/>
+      <c r="H190" s="17"/>
+      <c r="I190" s="17"/>
+      <c r="J190" s="17"/>
+      <c r="K190" s="17"/>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B191" s="17"/>
+      <c r="C191" s="17"/>
+      <c r="D191" s="17"/>
+      <c r="E191" s="17"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="17"/>
+      <c r="H191" s="17"/>
+      <c r="I191" s="17"/>
+      <c r="J191" s="17"/>
+      <c r="K191" s="17"/>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B192" s="17"/>
+      <c r="C192" s="17"/>
+      <c r="D192" s="17"/>
+      <c r="E192" s="17"/>
+      <c r="F192" s="17"/>
+      <c r="G192" s="17"/>
+      <c r="H192" s="17"/>
+      <c r="I192" s="17"/>
+      <c r="J192" s="17"/>
+      <c r="K192" s="17"/>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B193" s="17"/>
+      <c r="C193" s="17"/>
+      <c r="D193" s="17"/>
+      <c r="E193" s="17"/>
+      <c r="F193" s="17"/>
+      <c r="G193" s="17"/>
+      <c r="H193" s="17"/>
+      <c r="I193" s="17"/>
+      <c r="J193" s="17"/>
+      <c r="K193" s="17"/>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B194" s="17"/>
+      <c r="C194" s="17"/>
+      <c r="D194" s="17"/>
+      <c r="E194" s="17"/>
+      <c r="F194" s="17"/>
+      <c r="G194" s="17"/>
+      <c r="H194" s="17"/>
+      <c r="I194" s="17"/>
+      <c r="J194" s="17"/>
+      <c r="K194" s="17"/>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B195" s="17"/>
+      <c r="C195" s="17"/>
+      <c r="D195" s="17"/>
+      <c r="E195" s="17"/>
+      <c r="F195" s="17"/>
+      <c r="G195" s="17"/>
+      <c r="H195" s="17"/>
+      <c r="I195" s="17"/>
+      <c r="J195" s="17"/>
+      <c r="K195" s="17"/>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B196" s="17"/>
+      <c r="C196" s="17"/>
+      <c r="D196" s="17"/>
+      <c r="E196" s="17"/>
+      <c r="F196" s="17"/>
+      <c r="G196" s="17"/>
+      <c r="H196" s="17"/>
+      <c r="I196" s="17"/>
+      <c r="J196" s="17"/>
+      <c r="K196" s="17"/>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B197" s="17"/>
+      <c r="C197" s="17"/>
+      <c r="D197" s="17"/>
+      <c r="E197" s="17"/>
+      <c r="F197" s="17"/>
+      <c r="G197" s="17"/>
+      <c r="H197" s="17"/>
+      <c r="I197" s="17"/>
+      <c r="J197" s="17"/>
+      <c r="K197" s="17"/>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B198" s="17"/>
+      <c r="C198" s="17"/>
+      <c r="D198" s="17"/>
+      <c r="E198" s="17"/>
+      <c r="F198" s="17"/>
+      <c r="G198" s="17"/>
+      <c r="H198" s="17"/>
+      <c r="I198" s="17"/>
+      <c r="J198" s="17"/>
+      <c r="K198" s="17"/>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B199" s="17"/>
+      <c r="C199" s="17"/>
+      <c r="D199" s="17"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="17"/>
+      <c r="G199" s="17"/>
+      <c r="H199" s="17"/>
+      <c r="I199" s="17"/>
+      <c r="J199" s="17"/>
+      <c r="K199" s="17"/>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B200" s="17"/>
+      <c r="C200" s="17"/>
+      <c r="D200" s="17"/>
+      <c r="E200" s="17"/>
+      <c r="F200" s="17"/>
+      <c r="G200" s="17"/>
+      <c r="H200" s="17"/>
+      <c r="I200" s="17"/>
+      <c r="J200" s="17"/>
+      <c r="K200" s="17"/>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B201" s="17"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="17"/>
+      <c r="E201" s="17"/>
+      <c r="F201" s="17"/>
+      <c r="G201" s="17"/>
+      <c r="H201" s="17"/>
+      <c r="I201" s="17"/>
+      <c r="J201" s="17"/>
+      <c r="K201" s="17"/>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B202" s="17"/>
+      <c r="C202" s="17"/>
+      <c r="D202" s="17"/>
+      <c r="E202" s="17"/>
+      <c r="F202" s="17"/>
+      <c r="G202" s="17"/>
+      <c r="H202" s="17"/>
+      <c r="I202" s="17"/>
+      <c r="J202" s="17"/>
+      <c r="K202" s="17"/>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B203" s="17"/>
+      <c r="C203" s="17"/>
+      <c r="D203" s="17"/>
+      <c r="E203" s="17"/>
+      <c r="F203" s="17"/>
+      <c r="G203" s="17"/>
+      <c r="H203" s="17"/>
+      <c r="I203" s="17"/>
+      <c r="J203" s="17"/>
+      <c r="K203" s="17"/>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B204" s="17"/>
+      <c r="C204" s="17"/>
+      <c r="D204" s="17"/>
+      <c r="E204" s="17"/>
+      <c r="F204" s="17"/>
+      <c r="G204" s="17"/>
+      <c r="H204" s="17"/>
+      <c r="I204" s="17"/>
+      <c r="J204" s="17"/>
+      <c r="K204" s="17"/>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B205" s="17"/>
+      <c r="C205" s="17"/>
+      <c r="D205" s="17"/>
+      <c r="E205" s="17"/>
+      <c r="F205" s="17"/>
+      <c r="G205" s="17"/>
+      <c r="H205" s="17"/>
+      <c r="I205" s="17"/>
+      <c r="J205" s="17"/>
+      <c r="K205" s="17"/>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B206" s="17"/>
+      <c r="C206" s="17"/>
+      <c r="D206" s="17"/>
+      <c r="E206" s="17"/>
+      <c r="F206" s="17"/>
+      <c r="G206" s="17"/>
+      <c r="H206" s="17"/>
+      <c r="I206" s="17"/>
+      <c r="J206" s="17"/>
+      <c r="K206" s="17"/>
+    </row>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B207" s="17"/>
+      <c r="C207" s="17"/>
+      <c r="D207" s="17"/>
+      <c r="E207" s="17"/>
+      <c r="F207" s="17"/>
+      <c r="G207" s="17"/>
+      <c r="H207" s="17"/>
+      <c r="I207" s="17"/>
+      <c r="J207" s="17"/>
+      <c r="K207" s="17"/>
+    </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B208" s="17"/>
+      <c r="C208" s="17"/>
+      <c r="D208" s="17"/>
+      <c r="E208" s="17"/>
+      <c r="F208" s="17"/>
+      <c r="G208" s="17"/>
+      <c r="H208" s="17"/>
+      <c r="I208" s="17"/>
+      <c r="J208" s="17"/>
+      <c r="K208" s="17"/>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B209" s="17"/>
+      <c r="C209" s="17"/>
+      <c r="D209" s="17"/>
+      <c r="E209" s="17"/>
+      <c r="F209" s="17"/>
+      <c r="G209" s="17"/>
+      <c r="H209" s="17"/>
+      <c r="I209" s="17"/>
+      <c r="J209" s="17"/>
+      <c r="K209" s="17"/>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B210" s="17"/>
+      <c r="C210" s="17"/>
+      <c r="D210" s="17"/>
+      <c r="E210" s="17"/>
+      <c r="F210" s="17"/>
+      <c r="G210" s="17"/>
+      <c r="H210" s="17"/>
+      <c r="I210" s="17"/>
+      <c r="J210" s="17"/>
+      <c r="K210" s="17"/>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B211" s="17"/>
+      <c r="C211" s="17"/>
+      <c r="D211" s="17"/>
+      <c r="E211" s="17"/>
+      <c r="F211" s="17"/>
+      <c r="G211" s="17"/>
+      <c r="H211" s="17"/>
+      <c r="I211" s="17"/>
+      <c r="J211" s="17"/>
+      <c r="K211" s="17"/>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B212" s="17"/>
+      <c r="C212" s="17"/>
+      <c r="D212" s="17"/>
+      <c r="E212" s="17"/>
+      <c r="F212" s="17"/>
+      <c r="G212" s="17"/>
+      <c r="H212" s="17"/>
+      <c r="I212" s="17"/>
+      <c r="J212" s="17"/>
+      <c r="K212" s="17"/>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B213" s="17"/>
+      <c r="C213" s="17"/>
+      <c r="D213" s="17"/>
+      <c r="E213" s="17"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="17"/>
+      <c r="H213" s="17"/>
+      <c r="I213" s="17"/>
+      <c r="J213" s="17"/>
+      <c r="K213" s="17"/>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B214" s="17"/>
+      <c r="C214" s="17"/>
+      <c r="D214" s="17"/>
+      <c r="E214" s="17"/>
+      <c r="F214" s="17"/>
+      <c r="G214" s="17"/>
+      <c r="H214" s="17"/>
+      <c r="I214" s="17"/>
+      <c r="J214" s="17"/>
+      <c r="K214" s="17"/>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B215" s="17"/>
+      <c r="C215" s="17"/>
+      <c r="D215" s="17"/>
+      <c r="E215" s="17"/>
+      <c r="F215" s="17"/>
+      <c r="G215" s="17"/>
+      <c r="H215" s="17"/>
+      <c r="I215" s="17"/>
+      <c r="J215" s="17"/>
+      <c r="K215" s="17"/>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B216" s="17"/>
+      <c r="C216" s="17"/>
+      <c r="D216" s="17"/>
+      <c r="E216" s="17"/>
+      <c r="F216" s="17"/>
+      <c r="G216" s="17"/>
+      <c r="H216" s="17"/>
+      <c r="I216" s="17"/>
+      <c r="J216" s="17"/>
+      <c r="K216" s="17"/>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B217" s="17"/>
+      <c r="C217" s="17"/>
+      <c r="D217" s="17"/>
+      <c r="E217" s="17"/>
+      <c r="F217" s="17"/>
+      <c r="G217" s="17"/>
+      <c r="H217" s="17"/>
+      <c r="I217" s="17"/>
+      <c r="J217" s="17"/>
+      <c r="K217" s="17"/>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B218" s="17"/>
+      <c r="C218" s="17"/>
+      <c r="D218" s="17"/>
+      <c r="E218" s="17"/>
+      <c r="F218" s="17"/>
+      <c r="G218" s="17"/>
+      <c r="H218" s="17"/>
+      <c r="I218" s="17"/>
+      <c r="J218" s="17"/>
+      <c r="K218" s="17"/>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B219" s="17"/>
+      <c r="C219" s="17"/>
+      <c r="D219" s="17"/>
+      <c r="E219" s="17"/>
+      <c r="F219" s="17"/>
+      <c r="G219" s="17"/>
+      <c r="H219" s="17"/>
+      <c r="I219" s="17"/>
+      <c r="J219" s="17"/>
+      <c r="K219" s="17"/>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B220" s="17"/>
+      <c r="C220" s="17"/>
+      <c r="D220" s="17"/>
+      <c r="E220" s="17"/>
+      <c r="F220" s="17"/>
+      <c r="G220" s="17"/>
+      <c r="H220" s="17"/>
+      <c r="I220" s="17"/>
+      <c r="J220" s="17"/>
+      <c r="K220" s="17"/>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B221" s="17"/>
+      <c r="C221" s="17"/>
+      <c r="D221" s="17"/>
+      <c r="E221" s="17"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="17"/>
+      <c r="H221" s="17"/>
+      <c r="I221" s="17"/>
+      <c r="J221" s="17"/>
+      <c r="K221" s="17"/>
+    </row>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B222" s="17"/>
+      <c r="C222" s="17"/>
+      <c r="D222" s="17"/>
+      <c r="E222" s="17"/>
+      <c r="F222" s="17"/>
+      <c r="G222" s="17"/>
+      <c r="H222" s="17"/>
+      <c r="I222" s="17"/>
+      <c r="J222" s="17"/>
+      <c r="K222" s="17"/>
+    </row>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B223" s="17"/>
+      <c r="C223" s="17"/>
+      <c r="D223" s="17"/>
+      <c r="E223" s="17"/>
+      <c r="F223" s="17"/>
+      <c r="G223" s="17"/>
+      <c r="H223" s="17"/>
+      <c r="I223" s="17"/>
+      <c r="J223" s="17"/>
+      <c r="K223" s="17"/>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B224" s="17"/>
+      <c r="C224" s="17"/>
+      <c r="D224" s="17"/>
+      <c r="E224" s="17"/>
+      <c r="F224" s="17"/>
+      <c r="G224" s="17"/>
+      <c r="H224" s="17"/>
+      <c r="I224" s="17"/>
+      <c r="J224" s="17"/>
+      <c r="K224" s="17"/>
+    </row>
+    <row r="225" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B225" s="17"/>
+      <c r="C225" s="17"/>
+      <c r="D225" s="17"/>
+      <c r="E225" s="17"/>
+      <c r="F225" s="17"/>
+      <c r="G225" s="17"/>
+      <c r="H225" s="17"/>
+      <c r="I225" s="17"/>
+      <c r="J225" s="17"/>
+      <c r="K225" s="17"/>
+    </row>
+    <row r="226" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B226" s="17"/>
+      <c r="C226" s="17"/>
+      <c r="D226" s="17"/>
+      <c r="E226" s="17"/>
+      <c r="F226" s="17"/>
+      <c r="G226" s="17"/>
+      <c r="H226" s="17"/>
+      <c r="I226" s="17"/>
+      <c r="J226" s="17"/>
+      <c r="K226" s="17"/>
+    </row>
+    <row r="227" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B227" s="17"/>
+      <c r="C227" s="17"/>
+      <c r="D227" s="17"/>
+      <c r="E227" s="17"/>
+      <c r="F227" s="17"/>
+      <c r="G227" s="17"/>
+      <c r="H227" s="17"/>
+      <c r="I227" s="17"/>
+      <c r="J227" s="17"/>
+      <c r="K227" s="17"/>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B228" s="17"/>
+      <c r="C228" s="17"/>
+      <c r="D228" s="17"/>
+      <c r="E228" s="17"/>
+      <c r="F228" s="17"/>
+      <c r="G228" s="17"/>
+      <c r="H228" s="17"/>
+      <c r="I228" s="17"/>
+      <c r="J228" s="17"/>
+      <c r="K228" s="17"/>
+    </row>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B229" s="17"/>
+      <c r="C229" s="17"/>
+      <c r="D229" s="17"/>
+      <c r="E229" s="17"/>
+      <c r="F229" s="17"/>
+      <c r="G229" s="17"/>
+      <c r="H229" s="17"/>
+      <c r="I229" s="17"/>
+      <c r="J229" s="17"/>
+      <c r="K229" s="17"/>
+    </row>
+    <row r="230" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B230" s="17"/>
+      <c r="C230" s="17"/>
+      <c r="D230" s="17"/>
+      <c r="E230" s="17"/>
+      <c r="F230" s="17"/>
+      <c r="G230" s="17"/>
+      <c r="H230" s="17"/>
+      <c r="I230" s="17"/>
+      <c r="J230" s="17"/>
+      <c r="K230" s="17"/>
+    </row>
+    <row r="231" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B231" s="17"/>
+      <c r="C231" s="17"/>
+      <c r="D231" s="17"/>
+      <c r="E231" s="17"/>
+      <c r="F231" s="17"/>
+      <c r="G231" s="17"/>
+      <c r="H231" s="17"/>
+      <c r="I231" s="17"/>
+      <c r="J231" s="17"/>
+      <c r="K231" s="17"/>
+    </row>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B232" s="17"/>
+      <c r="C232" s="17"/>
+      <c r="D232" s="17"/>
+      <c r="E232" s="17"/>
+      <c r="F232" s="17"/>
+      <c r="G232" s="17"/>
+      <c r="H232" s="17"/>
+      <c r="I232" s="17"/>
+      <c r="J232" s="17"/>
+      <c r="K232" s="17"/>
+    </row>
+    <row r="233" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B233" s="17"/>
+      <c r="C233" s="17"/>
+      <c r="D233" s="17"/>
+      <c r="E233" s="17"/>
+      <c r="F233" s="17"/>
+      <c r="G233" s="17"/>
+      <c r="H233" s="17"/>
+      <c r="I233" s="17"/>
+      <c r="J233" s="17"/>
+      <c r="K233" s="17"/>
+    </row>
+    <row r="234" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B234" s="17"/>
+      <c r="C234" s="17"/>
+      <c r="D234" s="17"/>
+      <c r="E234" s="17"/>
+      <c r="F234" s="17"/>
+      <c r="G234" s="17"/>
+      <c r="H234" s="17"/>
+      <c r="I234" s="17"/>
+      <c r="J234" s="17"/>
+      <c r="K234" s="17"/>
+    </row>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B235" s="17"/>
+      <c r="C235" s="17"/>
+      <c r="D235" s="17"/>
+      <c r="E235" s="17"/>
+      <c r="F235" s="17"/>
+      <c r="G235" s="17"/>
+      <c r="H235" s="17"/>
+      <c r="I235" s="17"/>
+      <c r="J235" s="17"/>
+      <c r="K235" s="17"/>
+    </row>
+    <row r="236" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B236" s="17"/>
+      <c r="C236" s="17"/>
+      <c r="D236" s="17"/>
+      <c r="E236" s="17"/>
+      <c r="F236" s="17"/>
+      <c r="G236" s="17"/>
+      <c r="H236" s="17"/>
+      <c r="I236" s="17"/>
+      <c r="J236" s="17"/>
+      <c r="K236" s="17"/>
+    </row>
+    <row r="237" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B237" s="17"/>
+      <c r="C237" s="17"/>
+      <c r="D237" s="17"/>
+      <c r="E237" s="17"/>
+      <c r="F237" s="17"/>
+      <c r="G237" s="17"/>
+      <c r="H237" s="17"/>
+      <c r="I237" s="17"/>
+      <c r="J237" s="17"/>
+      <c r="K237" s="17"/>
+    </row>
+    <row r="238" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B238" s="17"/>
+      <c r="C238" s="17"/>
+      <c r="D238" s="17"/>
+      <c r="E238" s="17"/>
+      <c r="F238" s="17"/>
+      <c r="G238" s="17"/>
+      <c r="H238" s="17"/>
+      <c r="I238" s="17"/>
+      <c r="J238" s="17"/>
+      <c r="K238" s="17"/>
+    </row>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B239" s="17"/>
+      <c r="C239" s="17"/>
+      <c r="D239" s="17"/>
+      <c r="E239" s="17"/>
+      <c r="F239" s="17"/>
+      <c r="G239" s="17"/>
+      <c r="H239" s="17"/>
+      <c r="I239" s="17"/>
+      <c r="J239" s="17"/>
+      <c r="K239" s="17"/>
+    </row>
+    <row r="240" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B240" s="17"/>
+      <c r="C240" s="17"/>
+      <c r="D240" s="17"/>
+      <c r="E240" s="17"/>
+      <c r="F240" s="17"/>
+      <c r="G240" s="17"/>
+      <c r="H240" s="17"/>
+      <c r="I240" s="17"/>
+      <c r="J240" s="17"/>
+      <c r="K240" s="17"/>
+    </row>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B241" s="17"/>
+      <c r="C241" s="17"/>
+      <c r="D241" s="17"/>
+      <c r="E241" s="17"/>
+      <c r="F241" s="17"/>
+      <c r="G241" s="17"/>
+      <c r="H241" s="17"/>
+      <c r="I241" s="17"/>
+      <c r="J241" s="17"/>
+      <c r="K241" s="17"/>
+    </row>
+    <row r="242" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B242" s="17"/>
+      <c r="C242" s="17"/>
+      <c r="D242" s="17"/>
+      <c r="E242" s="17"/>
+      <c r="F242" s="17"/>
+      <c r="G242" s="17"/>
+      <c r="H242" s="17"/>
+      <c r="I242" s="17"/>
+      <c r="J242" s="17"/>
+      <c r="K242" s="17"/>
+    </row>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B243" s="17"/>
+      <c r="C243" s="17"/>
+      <c r="D243" s="17"/>
+      <c r="E243" s="17"/>
+      <c r="F243" s="17"/>
+      <c r="G243" s="17"/>
+      <c r="H243" s="17"/>
+      <c r="I243" s="17"/>
+      <c r="J243" s="17"/>
+      <c r="K243" s="17"/>
+    </row>
+    <row r="244" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B244" s="17"/>
+      <c r="C244" s="17"/>
+      <c r="D244" s="17"/>
+      <c r="E244" s="17"/>
+      <c r="F244" s="17"/>
+      <c r="G244" s="17"/>
+      <c r="H244" s="17"/>
+      <c r="I244" s="17"/>
+      <c r="J244" s="17"/>
+      <c r="K244" s="17"/>
+    </row>
+    <row r="245" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B245" s="17"/>
+      <c r="C245" s="17"/>
+      <c r="D245" s="17"/>
+      <c r="E245" s="17"/>
+      <c r="F245" s="17"/>
+      <c r="G245" s="17"/>
+      <c r="H245" s="17"/>
+      <c r="I245" s="17"/>
+      <c r="J245" s="17"/>
+      <c r="K245" s="17"/>
+    </row>
+    <row r="246" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B246" s="17"/>
+      <c r="C246" s="17"/>
+      <c r="D246" s="17"/>
+      <c r="E246" s="17"/>
+      <c r="F246" s="17"/>
+      <c r="G246" s="17"/>
+      <c r="H246" s="17"/>
+      <c r="I246" s="17"/>
+      <c r="J246" s="17"/>
+      <c r="K246" s="17"/>
+    </row>
+    <row r="247" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B247" s="17"/>
+      <c r="C247" s="17"/>
+      <c r="D247" s="17"/>
+      <c r="E247" s="17"/>
+      <c r="F247" s="17"/>
+      <c r="G247" s="17"/>
+      <c r="H247" s="17"/>
+      <c r="I247" s="17"/>
+      <c r="J247" s="17"/>
+      <c r="K247" s="17"/>
+    </row>
+    <row r="248" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B248" s="17"/>
+      <c r="C248" s="17"/>
+      <c r="D248" s="17"/>
+      <c r="E248" s="17"/>
+      <c r="F248" s="17"/>
+      <c r="G248" s="17"/>
+      <c r="H248" s="17"/>
+      <c r="I248" s="17"/>
+      <c r="J248" s="17"/>
+      <c r="K248" s="17"/>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B249" s="17"/>
+      <c r="C249" s="17"/>
+      <c r="D249" s="17"/>
+      <c r="E249" s="17"/>
+      <c r="F249" s="17"/>
+      <c r="G249" s="17"/>
+      <c r="H249" s="17"/>
+      <c r="I249" s="17"/>
+      <c r="J249" s="17"/>
+      <c r="K249" s="17"/>
+    </row>
+    <row r="250" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B250" s="17"/>
+      <c r="C250" s="17"/>
+      <c r="D250" s="17"/>
+      <c r="E250" s="17"/>
+      <c r="F250" s="17"/>
+      <c r="G250" s="17"/>
+      <c r="H250" s="17"/>
+      <c r="I250" s="17"/>
+      <c r="J250" s="17"/>
+      <c r="K250" s="17"/>
+    </row>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B251" s="17"/>
+      <c r="C251" s="17"/>
+      <c r="D251" s="17"/>
+      <c r="E251" s="17"/>
+      <c r="F251" s="17"/>
+      <c r="G251" s="17"/>
+      <c r="H251" s="17"/>
+      <c r="I251" s="17"/>
+      <c r="J251" s="17"/>
+      <c r="K251" s="17"/>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B252" s="17"/>
+      <c r="C252" s="17"/>
+      <c r="D252" s="17"/>
+      <c r="E252" s="17"/>
+      <c r="F252" s="17"/>
+      <c r="G252" s="17"/>
+      <c r="H252" s="17"/>
+      <c r="I252" s="17"/>
+      <c r="J252" s="17"/>
+      <c r="K252" s="17"/>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B253" s="17"/>
+      <c r="C253" s="17"/>
+      <c r="D253" s="17"/>
+      <c r="E253" s="17"/>
+      <c r="F253" s="17"/>
+      <c r="G253" s="17"/>
+      <c r="H253" s="17"/>
+      <c r="I253" s="17"/>
+      <c r="J253" s="17"/>
+      <c r="K253" s="17"/>
+    </row>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B254" s="17"/>
+      <c r="C254" s="17"/>
+      <c r="D254" s="17"/>
+      <c r="E254" s="17"/>
+      <c r="F254" s="17"/>
+      <c r="G254" s="17"/>
+      <c r="H254" s="17"/>
+      <c r="I254" s="17"/>
+      <c r="J254" s="17"/>
+      <c r="K254" s="17"/>
+    </row>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B255" s="17"/>
+      <c r="C255" s="17"/>
+      <c r="D255" s="17"/>
+      <c r="E255" s="17"/>
+      <c r="F255" s="17"/>
+      <c r="G255" s="17"/>
+      <c r="H255" s="17"/>
+      <c r="I255" s="17"/>
+      <c r="J255" s="17"/>
+      <c r="K255" s="17"/>
+    </row>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B256" s="17"/>
+      <c r="C256" s="17"/>
+      <c r="D256" s="17"/>
+      <c r="E256" s="17"/>
+      <c r="F256" s="17"/>
+      <c r="G256" s="17"/>
+      <c r="H256" s="17"/>
+      <c r="I256" s="17"/>
+      <c r="J256" s="17"/>
+      <c r="K256" s="17"/>
+    </row>
+    <row r="257" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B257" s="17"/>
+      <c r="C257" s="17"/>
+      <c r="D257" s="17"/>
+      <c r="E257" s="17"/>
+      <c r="F257" s="17"/>
+      <c r="G257" s="17"/>
+      <c r="H257" s="17"/>
+      <c r="I257" s="17"/>
+      <c r="J257" s="17"/>
+      <c r="K257" s="17"/>
+    </row>
+    <row r="258" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B258" s="17"/>
+      <c r="C258" s="17"/>
+      <c r="D258" s="17"/>
+      <c r="E258" s="17"/>
+      <c r="F258" s="17"/>
+      <c r="G258" s="17"/>
+      <c r="H258" s="17"/>
+      <c r="I258" s="17"/>
+      <c r="J258" s="17"/>
+      <c r="K258" s="17"/>
+    </row>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B259" s="17"/>
+      <c r="C259" s="17"/>
+      <c r="D259" s="17"/>
+      <c r="E259" s="17"/>
+      <c r="F259" s="17"/>
+      <c r="G259" s="17"/>
+      <c r="H259" s="17"/>
+      <c r="I259" s="17"/>
+      <c r="J259" s="17"/>
+      <c r="K259" s="17"/>
+    </row>
+    <row r="260" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B260" s="17"/>
+      <c r="C260" s="17"/>
+      <c r="D260" s="17"/>
+      <c r="E260" s="17"/>
+      <c r="F260" s="17"/>
+      <c r="G260" s="17"/>
+      <c r="H260" s="17"/>
+      <c r="I260" s="17"/>
+      <c r="J260" s="17"/>
+      <c r="K260" s="17"/>
+    </row>
+    <row r="261" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B261" s="17"/>
+      <c r="C261" s="17"/>
+      <c r="D261" s="17"/>
+      <c r="E261" s="17"/>
+      <c r="F261" s="17"/>
+      <c r="G261" s="17"/>
+      <c r="H261" s="17"/>
+      <c r="I261" s="17"/>
+      <c r="J261" s="17"/>
+      <c r="K261" s="17"/>
+    </row>
+    <row r="262" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B262" s="17"/>
+      <c r="C262" s="17"/>
+      <c r="D262" s="17"/>
+      <c r="E262" s="17"/>
+      <c r="F262" s="17"/>
+      <c r="G262" s="17"/>
+      <c r="H262" s="17"/>
+      <c r="I262" s="17"/>
+      <c r="J262" s="17"/>
+      <c r="K262" s="17"/>
+    </row>
+    <row r="263" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B263" s="17"/>
+      <c r="C263" s="17"/>
+      <c r="D263" s="17"/>
+      <c r="E263" s="17"/>
+      <c r="F263" s="17"/>
+      <c r="G263" s="17"/>
+      <c r="H263" s="17"/>
+      <c r="I263" s="17"/>
+      <c r="J263" s="17"/>
+      <c r="K263" s="17"/>
+    </row>
+    <row r="264" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B264" s="17"/>
+      <c r="C264" s="17"/>
+      <c r="D264" s="17"/>
+      <c r="E264" s="17"/>
+      <c r="F264" s="17"/>
+      <c r="G264" s="17"/>
+      <c r="H264" s="17"/>
+      <c r="I264" s="17"/>
+      <c r="J264" s="17"/>
+      <c r="K264" s="17"/>
+    </row>
+    <row r="265" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B265" s="17"/>
+      <c r="C265" s="17"/>
+      <c r="D265" s="17"/>
+      <c r="E265" s="17"/>
+      <c r="F265" s="17"/>
+      <c r="G265" s="17"/>
+      <c r="H265" s="17"/>
+      <c r="I265" s="17"/>
+      <c r="J265" s="17"/>
+      <c r="K265" s="17"/>
+    </row>
+    <row r="266" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B266" s="17"/>
+      <c r="C266" s="17"/>
+      <c r="D266" s="17"/>
+      <c r="E266" s="17"/>
+      <c r="F266" s="17"/>
+      <c r="G266" s="17"/>
+      <c r="H266" s="17"/>
+      <c r="I266" s="17"/>
+      <c r="J266" s="17"/>
+      <c r="K266" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD388C1-F7F4-412E-9DE5-D0667F170F60}">
+  <dimension ref="A2:J13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="81.375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="21" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="25">
+        <v>45747</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" s="24">
+        <v>45752</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="24"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="24"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="24"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>